--- a/biology/Biologie cellulaire et moléculaire/PTK7/PTK7.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/PTK7/PTK7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tyrosine-protéine kinase-like 7, également connue sous le nom de kinase 4 du carcinome du côlon (CCK4), est un récepteur à activité tyrosine kinase qui, chez l'homme, est codé par le gène PTK7[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tyrosine-protéine kinase-like 7, également connue sous le nom de kinase 4 du carcinome du côlon (CCK4), est un récepteur à activité tyrosine kinase qui, chez l'homme, est codé par le gène PTK7,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les protéines réceptrices tyrosine kinases transduisent les signaux extracellulaires à travers la membrane cellulaire. Un sous-groupe de ces kinases est dépourvu d'activité catalytique tyrosine kinase détectable mais conserve un rôle dans la transduction du signal. La protéine codée par ce gène possède un domaine intracellulaire présentant une homologie avec la tyrosine kinase et peut fonctionner comme une molécule d'adhésion cellulaire. On pense que ce gène est exprimé dans les carcinomes du côlon mais pas dans le côlon normal et peut donc être un marqueur ou être impliqué dans la progression tumorale[7]. Quatre variantes de transcription codant pour quatre isoformes différentes ont été trouvées pour ce gène[6].
-PTK7 sert de commutateur de signalisation en fonction du contexte pour les voies de signalisation Wnt (en particulier dans les fonctions liées à la polarité des cellules planaires telles que l'extension convergente et la migration des cellules de la crête neurale) et semble avoir des fonctions similaires pour les voies de signalisation plexine et Flt-1[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les protéines réceptrices tyrosine kinases transduisent les signaux extracellulaires à travers la membrane cellulaire. Un sous-groupe de ces kinases est dépourvu d'activité catalytique tyrosine kinase détectable mais conserve un rôle dans la transduction du signal. La protéine codée par ce gène possède un domaine intracellulaire présentant une homologie avec la tyrosine kinase et peut fonctionner comme une molécule d'adhésion cellulaire. On pense que ce gène est exprimé dans les carcinomes du côlon mais pas dans le côlon normal et peut donc être un marqueur ou être impliqué dans la progression tumorale. Quatre variantes de transcription codant pour quatre isoformes différentes ont été trouvées pour ce gène.
+PTK7 sert de commutateur de signalisation en fonction du contexte pour les voies de signalisation Wnt (en particulier dans les fonctions liées à la polarité des cellules planaires telles que l'extension convergente et la migration des cellules de la crête neurale) et semble avoir des fonctions similaires pour les voies de signalisation plexine et Flt-1.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux médicaments sont actuellement développés dans le ciblage de la protéine PTK7 dans le traitement du cancer du côlon[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux médicaments sont actuellement développés dans le ciblage de la protéine PTK7 dans le traitement du cancer du côlon.
 </t>
         </is>
       </c>
